--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>40.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>168103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>九泰锐益定增灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>37.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501022</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.61</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168103</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰锐益定增灵活配置混合</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -678,25 +748,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>501022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,584 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -1834,6 +1834,106 @@
       </c>
       <c r="H15" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,17 +1859,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1878,14 +1899,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.99</v>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1894,14 +1937,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.15</v>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1910,14 +1975,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.93</v>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1926,13 +2013,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,7 +2057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,17 +2068,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2087,14 +2108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2103,14 +2146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.99</v>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2119,14 +2184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2135,14 +2222,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="6">
@@ -2151,13 +2360,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰锐益定增灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7361</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168103</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰锐益定增灵活配置混合</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.44</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7222</t>
+          <t>0.1065</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8880</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161834</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>80.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1558</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -715,74 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.23</t>
+          <t>84.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1381</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168103</t>
+          <t>006511</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰锐益定增灵活配置混合</t>
+          <t>博道卓远混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.95</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.99</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5540</t>
+          <t>0.3078</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>007825</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>博道志远混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9496</t>
+          <t>0.2291</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>007826</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>博道志远混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.87</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9326</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -961,302 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>006512</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>博道卓远混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2961</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1585</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006511</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道卓远混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0973</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007825</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道志远混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.76</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007826</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博道志远混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0313</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008135</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宸未来价值先锋混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006512</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道卓远混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1870,7 +1604,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1900,36 +1634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>168103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>九泰锐益定增灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>46.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3078</t>
+          <t>1.5540</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1938,36 +1672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2291</t>
+          <t>0.9496</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1976,36 +1710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>24.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.9326</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2014,36 +1748,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>006512</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>博道卓远混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2108,36 +2108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014155</t>
+          <t>168103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强A</t>
+          <t>九泰锐益定增灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>37.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>1.7222</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2146,36 +2146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014156</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强C</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.8880</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2184,36 +2184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>161834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.65</t>
+          <t>82.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.1558</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2222,36 +2222,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320016</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安多策略混合</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>87.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.1381</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2265,128 +2303,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.74</v>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.99</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>4.15</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.93</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014155</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强A</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>0.0692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014156</t>
+          <t>009992</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰君安中证500指数增强C</t>
+          <t>景顺长城量化成长演化混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0560</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.65</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320016</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安多策略混合</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -847,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3078</t>
+          <t>0.1065</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +1054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2291</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +1092,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>80.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -961,32 +1130,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>84.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -999,6 +1168,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1577,7 +1954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2051,7 +2428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2297,7 +2674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300009-安科生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.99</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.15</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.93</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰荣混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰荣混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -952,214 +1405,6 @@
       </c>
       <c r="H9" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>014155</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰君安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1065</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014156</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰君安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1224,36 +1469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006511</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道卓远混合A</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3078</t>
+          <t>0.1065</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +1507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2291</t>
+          <t>0.0560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1300,36 +1545,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>80.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1338,32 +1583,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>84.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1376,6 +1621,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1954,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2428,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2674,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
